--- a/Graficos/massaMola.xlsx
+++ b/Graficos/massaMola.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\Faculdado_Geral\Faculade\5 SEMESTRE\Projeto de Linguagens de Programação\Prova II\Prova2PLP\Graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7846D000-77FD-470C-8037-AF754850DC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586363D6-2B9B-4660-816E-4B9DC421518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,46 +473,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2"/>
       <c r="L1" s="2"/>
       <c r="N1" s="2"/>
       <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>209</v>
+      </c>
+      <c r="G2">
+        <v>224542.57345199501</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
